--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keemk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6B786-860B-48E3-A0BB-72799782756C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023F6FF-E250-43BE-B75A-543B8C69C9A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -194,6 +194,75 @@
   </si>
   <si>
     <t>Github repo or Description of change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginizer Security protects the login from brute force attacks. </t>
+  </si>
+  <si>
+    <t>Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
+  </si>
+  <si>
+    <t>High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
+  </si>
+  <si>
+    <t>Ensure that the plugins remain compatible and updated.</t>
+  </si>
+  <si>
+    <t>The two plugins are working together without issue</t>
+  </si>
+  <si>
+    <t>Potentially add additional plugins for more functionality (password requirements)</t>
+  </si>
+  <si>
+    <t>Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
+  </si>
+  <si>
+    <t>Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
+  </si>
+  <si>
+    <t>Creation of different account levels with multiple usernames, including admin login</t>
+  </si>
+  <si>
+    <t>Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
+  </si>
+  <si>
+    <t>Login is very quick, two easy steps</t>
+  </si>
+  <si>
+    <t>Namecheap auto backs up the site info</t>
+  </si>
+  <si>
+    <t>Check the backend of the site, contact namecheap support</t>
+  </si>
+  <si>
+    <t>role assignment can sometimes not get recognized by buddypress</t>
+  </si>
+  <si>
+    <t>update the buddypress plugin</t>
+  </si>
+  <si>
+    <t>servicable, looks like a login page, clear how to use</t>
+  </si>
+  <si>
+    <t>could write css to make more pretty, not high priority</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>BuddyPress and companion plugin were updated</t>
+  </si>
+  <si>
+    <t>Added Paid Membership Pro - Require Strong Passwords plugin</t>
+  </si>
+  <si>
+    <t>all plugins reviewed and disabled functions removed</t>
+  </si>
+  <si>
+    <t>See Security in Word Press above</t>
+  </si>
+  <si>
+    <t>Login page assesed by group and deemed perfectly servicable as is</t>
   </si>
 </sst>
 </file>
@@ -309,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +409,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,20 +726,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="36.68359375" customWidth="1"/>
+    <col min="5" max="5" width="36.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -677,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -694,7 +764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -707,7 +777,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +790,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -733,7 +803,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -746,7 +816,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -759,7 +829,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -772,7 +842,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,7 +855,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -798,7 +868,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -811,7 +881,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,7 +894,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -837,7 +907,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +920,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -863,7 +933,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -886,19 +956,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89C369A-A4D0-4EFD-94C4-DEAB9BA6DFE9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="29.9453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -906,7 +977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -923,124 +994,224 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
@@ -1058,15 +1229,15 @@
       <selection activeCell="D3" sqref="D3:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1074,7 +1245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1271,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1280,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1289,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1298,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1307,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1316,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1325,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1334,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1343,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1352,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1361,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1370,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1379,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
@@ -1226,15 +1397,15 @@
       <selection activeCell="D3" sqref="D3:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1242,7 +1413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1439,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1448,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1457,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1466,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1475,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1493,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +1502,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1511,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1520,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1529,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1538,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1547,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
@@ -1390,19 +1561,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A74BB3-BF8D-4A55-9D16-A52FBFD549DD}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1607,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1616,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1625,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1634,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1643,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1652,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1661,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1670,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1679,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1688,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1697,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1706,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1715,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6B786-860B-48E3-A0BB-72799782756C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCC64C4-9252-462C-B4C3-1F639EDFDDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-22875" yWindow="90" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -194,6 +193,51 @@
   </si>
   <si>
     <t>Github repo or Description of change</t>
+  </si>
+  <si>
+    <t>Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
+  </si>
+  <si>
+    <t>Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that the page is protected from bot spams or other attacks that could cause the API to be charged extra. </t>
+  </si>
+  <si>
+    <t>You can submit support requests through https://wpstorelocator.co/support/</t>
+  </si>
+  <si>
+    <t>Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There Is doucmentation for how to manage the plugin and how it is connected to the google API https://wpstorelocator.co/documentation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation on the how the Google Maps API key is set up, how billing is handled and what account it is on should all be created. </t>
+  </si>
+  <si>
+    <t>Tested the map from mulitple devices and locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the map on multiple browsers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map works quickly </t>
+  </si>
+  <si>
+    <t>The map functions correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a small annoyance, when you navigate to the page it asks your location and displays the gyms and parks near you, but to filter by gyms or parks you have to manually enter your location and search again. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t>Currently a few white boxes and a map make up the interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t>Work well on the phone and desktop</t>
   </si>
 </sst>
 </file>
@@ -657,7 +701,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31681DCD-7B9F-4A8A-81F4-84F4BCA6FE0B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1275,8 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
@@ -1263,62 +1308,106 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
@@ -1326,44 +1415,76 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
@@ -1371,10 +1492,18 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="11"/>
@@ -1390,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A74BB3-BF8D-4A55-9D16-A52FBFD549DD}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F15F42E-B44F-4AD2-BB52-568FAC6265D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B315D-5754-430E-8FFB-836D7B95D157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -308,6 +307,12 @@
   </si>
   <si>
     <t>Work well on the phone and desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Documentation file  for the Maps page: https://github.com/Hanandrof/Group-3-Repository/commit/49c4e95c0d54c951ddd50c763112b3d3e788061d#diff-c205924de0fe636ccdde4ed616fef66f75b78e98b03620637965c033fd161141 </t>
+  </si>
+  <si>
+    <t>Tested on Chrome, Firefox, Edge and Safari</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1447,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1455,8 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
@@ -1569,8 +1575,12 @@
       <c r="C9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44312</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1582,8 +1592,12 @@
       <c r="C10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="12">
+        <v>44312</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Software Engineering COSC412\Group Project\Project repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B315D-5754-430E-8FFB-836D7B95D157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86902C3-5D3D-4A8E-BDF9-9B109D7D17EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="111">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -313,6 +313,63 @@
   </si>
   <si>
     <t>Tested on Chrome, Firefox, Edge and Safari</t>
+  </si>
+  <si>
+    <t>Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
+  </si>
+  <si>
+    <t>Easily maintained through plugin updates</t>
+  </si>
+  <si>
+    <t>Primary format provided by Neve plugin</t>
+  </si>
+  <si>
+    <t>Visitor/Registered users can view pages based on user roles</t>
+  </si>
+  <si>
+    <t>Able to view pages based on specified user role</t>
+  </si>
+  <si>
+    <t>Fair loading speed</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups of site information.</t>
+  </si>
+  <si>
+    <t>contact namecheap support</t>
+  </si>
+  <si>
+    <t>Prompt to join displayed for all users regardless of membership level</t>
+  </si>
+  <si>
+    <t>User friendly and welcoming to all</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Find a plugin to protect from Hotlinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep plugins current and ensure compatability </t>
+  </si>
+  <si>
+    <t>Neve compatability with other plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide further documentation </t>
+  </si>
+  <si>
+    <t>Possibly resizing or compressing images</t>
+  </si>
+  <si>
+    <t>Possible landing page if site were to go down</t>
+  </si>
+  <si>
+    <t>Display join now prompt to site visitors only</t>
+  </si>
+  <si>
+    <t>Keeping Design Consistent</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD388DC-C570-49DD-A834-D0CFFF6A3350}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1344,8 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
@@ -1319,44 +1377,64 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
@@ -1364,17 +1442,25 @@
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
@@ -1382,17 +1468,25 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
@@ -1400,17 +1494,25 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
@@ -1418,8 +1520,12 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
@@ -1427,8 +1533,12 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
@@ -1446,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31681DCD-7B9F-4A8A-81F4-84F4BCA6FE0B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6B786-860B-48E3-A0BB-72799782756C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98354E7C-7F9C-4C68-BACD-E426EF1DFE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,8 +704,12 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1390,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A74BB3-BF8D-4A55-9D16-A52FBFD549DD}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98354E7C-7F9C-4C68-BACD-E426EF1DFE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497F2B-CC9E-448B-A99D-1F11066FA3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -181,12 +181,6 @@
     <t>Wordpress Plugins Interactivity</t>
   </si>
   <si>
-    <t>Interaction between Buddy Press Groups and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
-  </si>
-  <si>
-    <t>Look into the documentation of Buddy Press and Buddy Press Groups and make sure they work together</t>
-  </si>
-  <si>
     <t>Make sure the plugins are working nice together. (Which they are not)</t>
   </si>
   <si>
@@ -194,6 +188,21 @@
   </si>
   <si>
     <t>Github repo or Description of change</t>
+  </si>
+  <si>
+    <t>Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/Blog_Documentation.pdf</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Look into the documentation of Buddy Press and Paid Memberships Pro and make sure they work together</t>
+  </si>
+  <si>
+    <t>Interaction between Paid Memberships Pro and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
+  </si>
+  <si>
+    <t>I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +349,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +670,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,7 +745,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -742,12 +755,14 @@
         <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -773,10 +788,12 @@
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -786,8 +803,12 @@
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="13">
+        <v>44313</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -921,10 +942,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,10 +1446,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497F2B-CC9E-448B-A99D-1F11066FA3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37423C6D-07B7-48C2-BF5E-744DFBC823C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -203,6 +203,183 @@
   </si>
   <si>
     <t>I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginizer Security protects the login from brute force attacks. </t>
+  </si>
+  <si>
+    <t>Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
+  </si>
+  <si>
+    <t>Added Paid Membership Pro - Require Strong Passwords plugin</t>
+  </si>
+  <si>
+    <t>High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
+  </si>
+  <si>
+    <t>Ensure that the plugins remain compatible and updated.</t>
+  </si>
+  <si>
+    <t>all plugins reviewed and disabled functions removed</t>
+  </si>
+  <si>
+    <t>The two plugins are working together without issue</t>
+  </si>
+  <si>
+    <t>Potentially add additional plugins for more functionality (password requirements)</t>
+  </si>
+  <si>
+    <t>See Security in Word Press above</t>
+  </si>
+  <si>
+    <t>Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
+  </si>
+  <si>
+    <t>Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
+  </si>
+  <si>
+    <t>Creation of different account levels with multiple usernames, including admin login</t>
+  </si>
+  <si>
+    <t>Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
+  </si>
+  <si>
+    <t>Login is very quick, two easy steps</t>
+  </si>
+  <si>
+    <t>Namecheap auto backs up the site info</t>
+  </si>
+  <si>
+    <t>Check the backend of the site, contact namecheap support</t>
+  </si>
+  <si>
+    <t>role assignment can sometimes not get recognized by buddypress</t>
+  </si>
+  <si>
+    <t>update the buddypress plugin</t>
+  </si>
+  <si>
+    <t>BuddyPress and companion plugin were updated</t>
+  </si>
+  <si>
+    <t>servicable, looks like a login page, clear how to use</t>
+  </si>
+  <si>
+    <t>could write css to make more pretty, not high priority</t>
+  </si>
+  <si>
+    <t>Login page assesed by group and deemed perfectly servicable as is</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
+  </si>
+  <si>
+    <t>Find a plugin to protect from Hotlinking</t>
+  </si>
+  <si>
+    <t>Easily maintained through plugin updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep plugins current and ensure compatability </t>
+  </si>
+  <si>
+    <t>Primary format provided by Neve plugin</t>
+  </si>
+  <si>
+    <t>Neve compatability with other plugins</t>
+  </si>
+  <si>
+    <t>Visitor/Registered users can view pages based on user roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide further documentation </t>
+  </si>
+  <si>
+    <t>Able to view pages based on specified user role</t>
+  </si>
+  <si>
+    <t>Fair loading speed</t>
+  </si>
+  <si>
+    <t>Possibly resizing or compressing images</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups of site information.</t>
+  </si>
+  <si>
+    <t>contact namecheap support</t>
+  </si>
+  <si>
+    <t>Possible landing page if site were to go down</t>
+  </si>
+  <si>
+    <t>Prompt to join displayed for all users regardless of membership level</t>
+  </si>
+  <si>
+    <t>Display join now prompt to site visitors only</t>
+  </si>
+  <si>
+    <t>User friendly and welcoming to all</t>
+  </si>
+  <si>
+    <t>Keeping Design Consistent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
+  </si>
+  <si>
+    <t>Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that the page is protected from bot spams or other attacks that could cause the API to be charged extra. </t>
+  </si>
+  <si>
+    <t>You can submit support requests through https://wpstorelocator.co/support/</t>
+  </si>
+  <si>
+    <t>Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There Is doucmentation for how to manage the plugin and how it is connected to the google API https://wpstorelocator.co/documentation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation on the how the Google Maps API key is set up, how billing is handled and what account it is on should all be created. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Documentation file  for the Maps page: https://github.com/Hanandrof/Group-3-Repository/commit/49c4e95c0d54c951ddd50c763112b3d3e788061d#diff-c205924de0fe636ccdde4ed616fef66f75b78e98b03620637965c033fd161141 </t>
+  </si>
+  <si>
+    <t>Tested the map from mulitple devices and locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the map on multiple browsers </t>
+  </si>
+  <si>
+    <t>Tested on Chrome, Firefox, Edge and Safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map works quickly </t>
+  </si>
+  <si>
+    <t>The map functions correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a small annoyance, when you navigate to the page it asks your location and displays the gyms and parks near you, but to filter by gyms or parks you have to manually enter your location and search again. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t>Currently a few white boxes and a map make up the interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t>Work well on the phone and desktop</t>
   </si>
 </sst>
 </file>
@@ -318,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,6 +530,80 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +1163,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,154 +1171,258 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="24">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44312</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,7 +1435,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,154 +1443,210 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>24</v>
       </c>
+      <c r="E1" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31681DCD-7B9F-4A8A-81F4-84F4BCA6FE0B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,154 +1667,250 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
+      <c r="E1" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="44">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="44">
+        <v>44312</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Software Engineering COSC412\Group Project\Project repo\Group-3-Repository\Deliverables\Code Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9803101-7541-4614-BF3A-484622C87806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cover Pages" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Map" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Game" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Blog" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Cover Pages" sheetId="3" r:id="rId3"/>
+    <sheet name="Map" sheetId="4" r:id="rId4"/>
+    <sheet name="Game" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,306 +29,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What the Result is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What needs to be addressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github repo or Description of change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code readability (only applicable to game)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security in Word Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently not secure from SQL Injection and user permissions are not secure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a plugin that will protect from SQL injection. Try to change the user permissions in order to provide security to the site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easily maintainable as there are only two (active) plugins that affect how the blog works.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure the plugins are working nice together. (Which they are not)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress Plugins Interactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interaction between Paid Memberships Pro and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look into the documentation of Buddy Press and Paid Memberships Pro and make sure they work together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress Plugins active support</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Review by Alex</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>What the Result is</t>
+  </si>
+  <si>
+    <t>What needs to be addressed</t>
+  </si>
+  <si>
+    <t>Github repo or Description of change</t>
+  </si>
+  <si>
+    <t>Date of Change</t>
+  </si>
+  <si>
+    <t>Code readability (only applicable to game)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Security in Word Press</t>
+  </si>
+  <si>
+    <t>Currently not secure from SQL Injection and user permissions are not secure.</t>
+  </si>
+  <si>
+    <t>Find a plugin that will protect from SQL injection. Try to change the user permissions in order to provide security to the site</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Easily maintainable as there are only two (active) plugins that affect how the blog works.</t>
+  </si>
+  <si>
+    <t>Make sure the plugins are working nice together. (Which they are not)</t>
+  </si>
+  <si>
+    <t>Wordpress Plugins Interactivity</t>
+  </si>
+  <si>
+    <t>Interaction between Paid Memberships Pro and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
+  </si>
+  <si>
+    <t>Look into the documentation of Buddy Press and Paid Memberships Pro and make sure they work together</t>
+  </si>
+  <si>
+    <t>I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
+  </si>
+  <si>
+    <t>Wordpress Plugins active support</t>
   </si>
   <si>
     <t xml:space="preserve">There is active support for Buddy Press and Buddy Press Groups. </t>
   </si>
   <si>
-    <t xml:space="preserve">Not needlessly complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the many "membership" plugins that were installed, there are still remnants of each plugin. Thus causing the workarounds to be needlessly complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See if you can consolidate the number of  plugins used and make sure they are working together well. This is causing role permissions to be buggy as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently no documentation besides that provided by the plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide documentation so that the client can easily maintain their site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/Blog_Documentation.pdf</t>
+    <t>Not needlessly complex</t>
+  </si>
+  <si>
+    <t>With the many "membership" plugins that were installed, there are still remnants of each plugin. Thus causing the workarounds to be needlessly complex.</t>
+  </si>
+  <si>
+    <t>See if you can consolidate the number of  plugins used and make sure they are working together well. This is causing role permissions to be buggy as well.</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Currently no documentation besides that provided by the plugin</t>
+  </si>
+  <si>
+    <t>Provide documentation so that the client can easily maintain their site.</t>
+  </si>
+  <si>
+    <t>Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/Blog_Documentation.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Successful Testing </t>
   </si>
   <si>
-    <t xml:space="preserve">No testing as of yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create test cases and build off of that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy Breezy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap provides automatic backups in the cpanel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What to do if website goes down?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact the namecheap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outstanding Bugs/Glitches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone can create groups, which is caused by role permissions being out of wack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role permissions need to be fixed in order to better maintain the permissions of the users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aesthetic Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could be better but not a high priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not a priority, but find a theme that supports it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is responsive to multiple devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was found to be responsive on multiple devices of different screen sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Akeem</t>
+    <t>No testing as of yet</t>
+  </si>
+  <si>
+    <t>Create test cases and build off of that</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Easy Breezy</t>
+  </si>
+  <si>
+    <t>Backups</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups in the cpanel.</t>
+  </si>
+  <si>
+    <t>What to do if website goes down?</t>
+  </si>
+  <si>
+    <t>Contact the namecheap</t>
+  </si>
+  <si>
+    <t>Outstanding Bugs/Glitches</t>
+  </si>
+  <si>
+    <t>Everyone can create groups, which is caused by role permissions being out of wack.</t>
+  </si>
+  <si>
+    <t>Role permissions need to be fixed in order to better maintain the permissions of the users</t>
+  </si>
+  <si>
+    <t>Aesthetic Design</t>
+  </si>
+  <si>
+    <t>Could be better but not a high priority</t>
+  </si>
+  <si>
+    <t>Not a priority, but find a theme that supports it</t>
+  </si>
+  <si>
+    <t>Is responsive to multiple devices</t>
+  </si>
+  <si>
+    <t>This was found to be responsive on multiple devices of different screen sizes</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Review by Akeem</t>
   </si>
   <si>
     <t xml:space="preserve">Loginizer Security protects the login from brute force attacks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added Paid Membership Pro - Require Strong Passwords plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that the plugins remain compatible and updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all plugins reviewed and disabled functions removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two plugins are working together without issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentially add additional plugins for more functionality (password requirements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Security in Word Press above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of different account levels with multiple usernames, including admin login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login is very quick, two easy steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap auto backs up the site info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the backend of the site, contact namecheap support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role assignment can sometimes not get recognized by buddypress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update the buddypress plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BuddyPress and companion plugin were updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servicable, looks like a login page, clear how to use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could write css to make more pretty, not high priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login page assesed by group and deemed perfectly servicable as is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Brandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a plugin to protect from Hotlinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easily maintained through plugin updates</t>
+    <t>Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
+  </si>
+  <si>
+    <t>Added Paid Membership Pro - Require Strong Passwords plugin</t>
+  </si>
+  <si>
+    <t>High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
+  </si>
+  <si>
+    <t>Ensure that the plugins remain compatible and updated.</t>
+  </si>
+  <si>
+    <t>all plugins reviewed and disabled functions removed</t>
+  </si>
+  <si>
+    <t>The two plugins are working together without issue</t>
+  </si>
+  <si>
+    <t>Potentially add additional plugins for more functionality (password requirements)</t>
+  </si>
+  <si>
+    <t>See Security in Word Press above</t>
+  </si>
+  <si>
+    <t>Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
+  </si>
+  <si>
+    <t>Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
+  </si>
+  <si>
+    <t>Creation of different account levels with multiple usernames, including admin login</t>
+  </si>
+  <si>
+    <t>Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
+  </si>
+  <si>
+    <t>Login is very quick, two easy steps</t>
+  </si>
+  <si>
+    <t>Namecheap auto backs up the site info</t>
+  </si>
+  <si>
+    <t>Check the backend of the site, contact namecheap support</t>
+  </si>
+  <si>
+    <t>role assignment can sometimes not get recognized by buddypress</t>
+  </si>
+  <si>
+    <t>update the buddypress plugin</t>
+  </si>
+  <si>
+    <t>BuddyPress and companion plugin were updated</t>
+  </si>
+  <si>
+    <t>servicable, looks like a login page, clear how to use</t>
+  </si>
+  <si>
+    <t>could write css to make more pretty, not high priority</t>
+  </si>
+  <si>
+    <t>Login page assesed by group and deemed perfectly servicable as is</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cover Pages</t>
+  </si>
+  <si>
+    <t>Review by Brandon</t>
+  </si>
+  <si>
+    <t>Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
+  </si>
+  <si>
+    <t>Find a plugin to protect from Hotlinking</t>
+  </si>
+  <si>
+    <t>Easily maintained through plugin updates</t>
   </si>
   <si>
     <t xml:space="preserve">Keep plugins current and ensure compatability </t>
   </si>
   <si>
-    <t xml:space="preserve">Primary format provided by Neve plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neve compatability with other plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitor/Registered users can view pages based on user roles</t>
+    <t>Visitor/Registered users can view pages based on user roles</t>
   </si>
   <si>
     <t xml:space="preserve">Provide further documentation </t>
   </si>
   <si>
-    <t xml:space="preserve">Able to view pages based on specified user role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fair loading speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibly resizing or compressing images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap provides automatic backups of site information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact namecheap support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible landing page if site were to go down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt to join displayed for all users regardless of membership level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display join now prompt to site visitors only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User friendly and welcoming to all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keeping Design Consistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
+    <t>Able to view pages based on specified user role</t>
+  </si>
+  <si>
+    <t>Fair loading speed</t>
+  </si>
+  <si>
+    <t>Possibly resizing or compressing images</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups of site information.</t>
+  </si>
+  <si>
+    <t>contact namecheap support</t>
+  </si>
+  <si>
+    <t>Possible landing page if site were to go down</t>
+  </si>
+  <si>
+    <t>Prompt to join displayed for all users regardless of membership level</t>
+  </si>
+  <si>
+    <t>Display join now prompt to site visitors only</t>
+  </si>
+  <si>
+    <t>User friendly and welcoming to all</t>
+  </si>
+  <si>
+    <t>Keeping Design Consistent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Review by Jackson</t>
+  </si>
+  <si>
+    <t>Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
+  </si>
+  <si>
+    <t>Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
   </si>
   <si>
     <t xml:space="preserve">Make sure that the page is protected from bot spams or other attacks that could cause the API to be charged extra. </t>
   </si>
   <si>
-    <t xml:space="preserve">You can submit support requests through https://wpstorelocator.co/support/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
+    <t>You can submit support requests through https://wpstorelocator.co/support/</t>
+  </si>
+  <si>
+    <t>Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
   </si>
   <si>
     <t xml:space="preserve">There Is doucmentation for how to manage the plugin and how it is connected to the google API https://wpstorelocator.co/documentation/ </t>
@@ -335,133 +334,128 @@
     <t xml:space="preserve">Created Documentation file  for the Maps page: https://github.com/Hanandrof/Group-3-Repository/commit/49c4e95c0d54c951ddd50c763112b3d3e788061d#diff-c205924de0fe636ccdde4ed616fef66f75b78e98b03620637965c033fd161141 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tested the map from mulitple devices and locations.</t>
+    <t>Tested the map from mulitple devices and locations.</t>
   </si>
   <si>
     <t xml:space="preserve">Test the map on multiple browsers </t>
   </si>
   <si>
-    <t xml:space="preserve">Tested on Chrome, Firefox, Edge and Safari</t>
+    <t>Tested on Chrome, Firefox, Edge and Safari</t>
   </si>
   <si>
     <t xml:space="preserve">Map works quickly </t>
   </si>
   <si>
-    <t xml:space="preserve">The map functions correctly</t>
+    <t>The map functions correctly</t>
   </si>
   <si>
     <t xml:space="preserve">There is a small annoyance, when you navigate to the page it asks your location and displays the gyms and parks near you, but to filter by gyms or parks you have to manually enter your location and search again. This will be worked on as a stretch Goal </t>
   </si>
   <si>
-    <t xml:space="preserve">Currently a few white boxes and a map make up the interface.</t>
+    <t>Currently a few white boxes and a map make up the interface.</t>
   </si>
   <si>
     <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
   </si>
   <si>
-    <t xml:space="preserve">Work well on the phone and desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Stanley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is readable (at least for myself, since I know what everything does) but for others, it may be harder to read. There are comments in the code that I have written, and they explain basically what is supposed to happen in each few lines of code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future code must be documented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only people who are logged in should be able to access this part of the site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I loaded this up in another logged out browser and it was accessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is maintainable, all the quiz is stored in the database in a JSON format, more question types can be added, and the existing ones can be modified</t>
+    <t>Work well on the phone and desktop</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Review by Stanley</t>
+  </si>
+  <si>
+    <t>The code is readable (at least for myself, since I know what everything does) but for others, it may be harder to read. There are comments in the code that I have written, and they explain basically what is supposed to happen in each few lines of code</t>
+  </si>
+  <si>
+    <t>Future code must be documented</t>
+  </si>
+  <si>
+    <t>Only people who are logged in should be able to access this part of the site</t>
+  </si>
+  <si>
+    <t>I loaded this up in another logged out browser and it was accessible</t>
+  </si>
+  <si>
+    <t>The code is maintainable, all the quiz is stored in the database in a JSON format, more question types can be added, and the existing ones can be modified</t>
   </si>
   <si>
     <t xml:space="preserve">Support for the databases has been grafted on to the game </t>
   </si>
   <si>
-    <t xml:space="preserve">It is all a matter of wiring up the the databases to the game, as that has not been completed yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The game engine is complex, but not needlessly so</t>
+    <t>It is all a matter of wiring up the the databases to the game, as that has not been completed yet.</t>
+  </si>
+  <si>
+    <t>The game engine is complex, but not needlessly so</t>
   </si>
   <si>
     <t xml:space="preserve">There needs to be more documentation </t>
   </si>
   <si>
-    <t xml:space="preserve">I need to tell people how my program works, the class diagram will be complete soon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing of the connection to the database has been achieved, and the frontend components have also been tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The integration testing still should be done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems speedy to me, to load and update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handled by the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is stored on a git repository, and namecheap backs up the data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None that I am aware of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A more comprehensive test needs to be developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There needs to be more CSS, as the game is practically bare HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design consistency, figure out how to link wordpress theme to the HTML iframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has not been necessarily tested yet, but if the device in question supports HTML forms and Javascript, then it should also support this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once it has been developed, people should test to see if it works on a phone or another computer</t>
+    <t>I need to tell people how my program works, the class diagram will be complete soon</t>
+  </si>
+  <si>
+    <t>Testing of the connection to the database has been achieved, and the frontend components have also been tested</t>
+  </si>
+  <si>
+    <t>The integration testing still should be done</t>
+  </si>
+  <si>
+    <t>It seems speedy to me, to load and update</t>
+  </si>
+  <si>
+    <t>Handled by the database</t>
+  </si>
+  <si>
+    <t>The code is stored on a git repository, and namecheap backs up the data</t>
+  </si>
+  <si>
+    <t>None that I am aware of</t>
+  </si>
+  <si>
+    <t>A more comprehensive test needs to be developed</t>
+  </si>
+  <si>
+    <t>There needs to be more CSS, as the game is practically bare HTML</t>
+  </si>
+  <si>
+    <t>Design consistency, figure out how to link wordpress theme to the HTML iframe</t>
+  </si>
+  <si>
+    <t>Has not been necessarily tested yet, but if the device in question supports HTML forms and Javascript, then it should also support this</t>
+  </si>
+  <si>
+    <t>Once it has been developed, people should test to see if it works on a phone or another computer</t>
+  </si>
+  <si>
+    <t>Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/CoverPages_Documentation.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group agreement default Namecheap error pages servicable if site were to go down  </t>
+  </si>
+  <si>
+    <t>Implement built-in paidMembershipsPro feature for join new prompt to only be viewable to visitors</t>
+  </si>
+  <si>
+    <t>Primary format provided by Template Patterns and Collections plugin</t>
+  </si>
+  <si>
+    <t>Template Patterns and Collections compatability with other plugins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="36"/>
@@ -480,194 +474,468 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.57"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -684,14 +952,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -701,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -714,7 +982,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -727,7 +995,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -742,20 +1010,20 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -770,7 +1038,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -783,63 +1051,63 @@
       <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="13">
         <v>44313</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -852,72 +1120,64 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -934,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -951,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -964,11 +1224,11 @@
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -981,11 +1241,11 @@
       <c r="D6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -998,11 +1258,11 @@
       <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1309,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1083,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1113,11 +1373,11 @@
       <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1130,11 +1390,11 @@
       <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1151,50 +1411,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1221,10 +1473,14 @@
       <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1493,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1250,25 +1506,25 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1276,7 +1532,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1284,95 +1540,111 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -1380,50 +1652,42 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.42"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1440,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1457,12 +1721,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -1474,25 +1738,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>9</v>
@@ -1504,12 +1768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1521,46 +1785,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -1572,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1606,38 +1870,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -1649,49 +1913,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.42"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1708,38 +1964,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -1747,25 +2003,25 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1773,38 +2029,38 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -1812,12 +2068,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
@@ -1825,12 +2081,12 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>9</v>
@@ -1838,56 +2094,51 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -562,7 +562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,10 +623,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +646,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
@@ -900,7 +896,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
@@ -1177,7 +1173,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
@@ -1406,12 +1402,12 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.42"/>
   </cols>
   <sheetData>
@@ -1433,10 +1429,10 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1672,10 +1668,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>

--- a/Deliverables/Code Review/Evaluation Results.xlsx
+++ b/Deliverables/Code Review/Evaluation Results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Software Engineering COSC412\Group Project\Project repo\Group-3-Repository\Deliverables\Code Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F875F-A2AE-47DB-9AF6-6E769682C14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cover Pages" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Map" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Game" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Blog" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Cover Pages" sheetId="3" r:id="rId3"/>
+    <sheet name="Map" sheetId="4" r:id="rId4"/>
+    <sheet name="Game" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,306 +29,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What the Result is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What needs to be addressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github repo or Description of change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code readability (only applicable to game)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security in Word Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently not secure from SQL Injection and user permissions are not secure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a plugin that will protect from SQL injection. Try to change the user permissions in order to provide security to the site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easily maintainable as there are only two (active) plugins that affect how the blog works.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure the plugins are working nice together. (Which they are not)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress Plugins Interactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interaction between Paid Memberships Pro and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look into the documentation of Buddy Press and Paid Memberships Pro and make sure they work together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress Plugins active support</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Review by Alex</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>What the Result is</t>
+  </si>
+  <si>
+    <t>What needs to be addressed</t>
+  </si>
+  <si>
+    <t>Github repo or Description of change</t>
+  </si>
+  <si>
+    <t>Date of Change</t>
+  </si>
+  <si>
+    <t>Code readability (only applicable to game)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Security in Word Press</t>
+  </si>
+  <si>
+    <t>Currently not secure from SQL Injection and user permissions are not secure.</t>
+  </si>
+  <si>
+    <t>Find a plugin that will protect from SQL injection. Try to change the user permissions in order to provide security to the site</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Easily maintainable as there are only two (active) plugins that affect how the blog works.</t>
+  </si>
+  <si>
+    <t>Make sure the plugins are working nice together. (Which they are not)</t>
+  </si>
+  <si>
+    <t>Wordpress Plugins Interactivity</t>
+  </si>
+  <si>
+    <t>Interaction between Paid Memberships Pro and Buddy Press is not working. Groups is trying to give role permissions while Buddy Press is not accepting them.</t>
+  </si>
+  <si>
+    <t>Look into the documentation of Buddy Press and Paid Memberships Pro and make sure they work together</t>
+  </si>
+  <si>
+    <t>I believe it has something to do with the multiple user plugins we had installed and it messed with the overall website</t>
+  </si>
+  <si>
+    <t>Wordpress Plugins active support</t>
   </si>
   <si>
     <t xml:space="preserve">There is active support for Buddy Press and Buddy Press Groups. </t>
   </si>
   <si>
-    <t xml:space="preserve">Not needlessly complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the many "membership" plugins that were installed, there are still remnants of each plugin. Thus causing the workarounds to be needlessly complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See if you can consolidate the number of  plugins used and make sure they are working together well. This is causing role permissions to be buggy as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently no documentation besides that provided by the plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide documentation so that the client can easily maintain their site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/Blog_Documentation.pdf</t>
+    <t>Not needlessly complex</t>
+  </si>
+  <si>
+    <t>With the many "membership" plugins that were installed, there are still remnants of each plugin. Thus causing the workarounds to be needlessly complex.</t>
+  </si>
+  <si>
+    <t>See if you can consolidate the number of  plugins used and make sure they are working together well. This is causing role permissions to be buggy as well.</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Currently no documentation besides that provided by the plugin</t>
+  </si>
+  <si>
+    <t>Provide documentation so that the client can easily maintain their site.</t>
+  </si>
+  <si>
+    <t>Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/Blog_Documentation.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Successful Testing </t>
   </si>
   <si>
-    <t xml:space="preserve">No testing as of yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create test cases and build off of that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy Breezy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap provides automatic backups in the cpanel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What to do if website goes down?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact the namecheap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outstanding Bugs/Glitches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone can create groups, which is caused by role permissions being out of wack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role permissions need to be fixed in order to better maintain the permissions of the users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aesthetic Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could be better but not a high priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not a priority, but find a theme that supports it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is responsive to multiple devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was found to be responsive on multiple devices of different screen sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Akeem</t>
+    <t>No testing as of yet</t>
+  </si>
+  <si>
+    <t>Create test cases and build off of that</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Easy Breezy</t>
+  </si>
+  <si>
+    <t>Backups</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups in the cpanel.</t>
+  </si>
+  <si>
+    <t>What to do if website goes down?</t>
+  </si>
+  <si>
+    <t>Contact the namecheap</t>
+  </si>
+  <si>
+    <t>Outstanding Bugs/Glitches</t>
+  </si>
+  <si>
+    <t>Everyone can create groups, which is caused by role permissions being out of wack.</t>
+  </si>
+  <si>
+    <t>Role permissions need to be fixed in order to better maintain the permissions of the users</t>
+  </si>
+  <si>
+    <t>Aesthetic Design</t>
+  </si>
+  <si>
+    <t>Could be better but not a high priority</t>
+  </si>
+  <si>
+    <t>Not a priority, but find a theme that supports it</t>
+  </si>
+  <si>
+    <t>Is responsive to multiple devices</t>
+  </si>
+  <si>
+    <t>This was found to be responsive on multiple devices of different screen sizes</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Review by Akeem</t>
   </si>
   <si>
     <t xml:space="preserve">Loginizer Security protects the login from brute force attacks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added Paid Membership Pro - Require Strong Passwords plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that the plugins remain compatible and updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all plugins reviewed and disabled functions removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two plugins are working together without issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentially add additional plugins for more functionality (password requirements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Security in Word Press above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of different account levels with multiple usernames, including admin login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login is very quick, two easy steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap auto backs up the site info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the backend of the site, contact namecheap support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role assignment can sometimes not get recognized by buddypress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update the buddypress plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BuddyPress and companion plugin were updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servicable, looks like a login page, clear how to use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could write css to make more pretty, not high priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login page assesed by group and deemed perfectly servicable as is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Brandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a plugin to protect from Hotlinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easily maintained through plugin updates</t>
+    <t>Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
+  </si>
+  <si>
+    <t>Added Paid Membership Pro - Require Strong Passwords plugin</t>
+  </si>
+  <si>
+    <t>High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
+  </si>
+  <si>
+    <t>Ensure that the plugins remain compatible and updated.</t>
+  </si>
+  <si>
+    <t>all plugins reviewed and disabled functions removed</t>
+  </si>
+  <si>
+    <t>The two plugins are working together without issue</t>
+  </si>
+  <si>
+    <t>Potentially add additional plugins for more functionality (password requirements)</t>
+  </si>
+  <si>
+    <t>See Security in Word Press above</t>
+  </si>
+  <si>
+    <t>Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
+  </si>
+  <si>
+    <t>Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
+  </si>
+  <si>
+    <t>Creation of different account levels with multiple usernames, including admin login</t>
+  </si>
+  <si>
+    <t>Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
+  </si>
+  <si>
+    <t>Login is very quick, two easy steps</t>
+  </si>
+  <si>
+    <t>Namecheap auto backs up the site info</t>
+  </si>
+  <si>
+    <t>Check the backend of the site, contact namecheap support</t>
+  </si>
+  <si>
+    <t>role assignment can sometimes not get recognized by buddypress</t>
+  </si>
+  <si>
+    <t>update the buddypress plugin</t>
+  </si>
+  <si>
+    <t>BuddyPress and companion plugin were updated</t>
+  </si>
+  <si>
+    <t>servicable, looks like a login page, clear how to use</t>
+  </si>
+  <si>
+    <t>could write css to make more pretty, not high priority</t>
+  </si>
+  <si>
+    <t>Login page assesed by group and deemed perfectly servicable as is</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cover Pages</t>
+  </si>
+  <si>
+    <t>Review by Brandon</t>
+  </si>
+  <si>
+    <t>Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
+  </si>
+  <si>
+    <t>Find a plugin to protect from Hotlinking</t>
+  </si>
+  <si>
+    <t>Easily maintained through plugin updates</t>
   </si>
   <si>
     <t xml:space="preserve">Keep plugins current and ensure compatability </t>
   </si>
   <si>
-    <t xml:space="preserve">Primary format provided by Neve plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neve compatability with other plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitor/Registered users can view pages based on user roles</t>
+    <t>Visitor/Registered users can view pages based on user roles</t>
   </si>
   <si>
     <t xml:space="preserve">Provide further documentation </t>
   </si>
   <si>
-    <t xml:space="preserve">Able to view pages based on specified user role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fair loading speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibly resizing or compressing images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namecheap provides automatic backups of site information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact namecheap support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible landing page if site were to go down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt to join displayed for all users regardless of membership level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display join now prompt to site visitors only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User friendly and welcoming to all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keeping Design Consistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
+    <t>Able to view pages based on specified user role</t>
+  </si>
+  <si>
+    <t>Fair loading speed</t>
+  </si>
+  <si>
+    <t>Possibly resizing or compressing images</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups of site information.</t>
+  </si>
+  <si>
+    <t>contact namecheap support</t>
+  </si>
+  <si>
+    <t>Possible landing page if site were to go down</t>
+  </si>
+  <si>
+    <t>Prompt to join displayed for all users regardless of membership level</t>
+  </si>
+  <si>
+    <t>Display join now prompt to site visitors only</t>
+  </si>
+  <si>
+    <t>User friendly and welcoming to all</t>
+  </si>
+  <si>
+    <t>Keeping Design Consistent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Review by Jackson</t>
+  </si>
+  <si>
+    <t>Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
+  </si>
+  <si>
+    <t>Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
   </si>
   <si>
     <t xml:space="preserve">Make sure that the page is protected from bot spams or other attacks that could cause the API to be charged extra. </t>
   </si>
   <si>
-    <t xml:space="preserve">You can submit support requests through https://wpstorelocator.co/support/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
+    <t>You can submit support requests through https://wpstorelocator.co/support/</t>
+  </si>
+  <si>
+    <t>Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality</t>
   </si>
   <si>
     <t xml:space="preserve">There Is doucmentation for how to manage the plugin and how it is connected to the google API https://wpstorelocator.co/documentation/ </t>
@@ -335,133 +334,134 @@
     <t xml:space="preserve">Created Documentation file  for the Maps page: https://github.com/Hanandrof/Group-3-Repository/commit/49c4e95c0d54c951ddd50c763112b3d3e788061d#diff-c205924de0fe636ccdde4ed616fef66f75b78e98b03620637965c033fd161141 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tested the map from mulitple devices and locations.</t>
+    <t>Tested the map from mulitple devices and locations.</t>
   </si>
   <si>
     <t xml:space="preserve">Test the map on multiple browsers </t>
   </si>
   <si>
-    <t xml:space="preserve">Tested on Chrome, Firefox, Edge and Safari</t>
+    <t>Tested on Chrome, Firefox, Edge and Safari</t>
   </si>
   <si>
     <t xml:space="preserve">Map works quickly </t>
   </si>
   <si>
-    <t xml:space="preserve">The map functions correctly</t>
+    <t>The map functions correctly</t>
   </si>
   <si>
     <t xml:space="preserve">There is a small annoyance, when you navigate to the page it asks your location and displays the gyms and parks near you, but to filter by gyms or parks you have to manually enter your location and search again. This will be worked on as a stretch Goal </t>
   </si>
   <si>
-    <t xml:space="preserve">Currently a few white boxes and a map make up the interface.</t>
+    <t>Currently a few white boxes and a map make up the interface.</t>
   </si>
   <si>
     <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
   </si>
   <si>
-    <t xml:space="preserve">Work well on the phone and desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review by Stanley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is readable (at least for myself, since I know what everything does) but for others, it may be harder to read. There are comments in the code that I have written, and they explain basically what is supposed to happen in each few lines of code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future code must be documented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only people who are logged in should be able to access this part of the site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I loaded this up in another logged out browser and it was accessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is maintainable, all the quiz is stored in the database in a JSON format, more question types can be added, and the existing ones can be modified</t>
+    <t>Work well on the phone and desktop</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Review by Stanley</t>
+  </si>
+  <si>
+    <t>The code is readable (at least for myself, since I know what everything does) but for others, it may be harder to read. There are comments in the code that I have written, and they explain basically what is supposed to happen in each few lines of code</t>
+  </si>
+  <si>
+    <t>Future code must be documented</t>
+  </si>
+  <si>
+    <t>Only people who are logged in should be able to access this part of the site</t>
+  </si>
+  <si>
+    <t>I loaded this up in another logged out browser and it was accessible</t>
+  </si>
+  <si>
+    <t>The code is maintainable, all the quiz is stored in the database in a JSON format, more question types can be added, and the existing ones can be modified</t>
   </si>
   <si>
     <t xml:space="preserve">Support for the databases has been grafted on to the game </t>
   </si>
   <si>
-    <t xml:space="preserve">It is all a matter of wiring up the the databases to the game, as that has not been completed yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The game engine is complex, but not needlessly so</t>
+    <t>It is all a matter of wiring up the the databases to the game, as that has not been completed yet.</t>
+  </si>
+  <si>
+    <t>The game engine is complex, but not needlessly so</t>
   </si>
   <si>
     <t xml:space="preserve">There needs to be more documentation </t>
   </si>
   <si>
-    <t xml:space="preserve">I need to tell people how my program works, the class diagram will be complete soon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing of the connection to the database has been achieved, and the frontend components have also been tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The integration testing still should be done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems speedy to me, to load and update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handled by the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is stored on a git repository, and namecheap backs up the data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None that I am aware of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A more comprehensive test needs to be developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There needs to be more CSS, as the game is practically bare HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design consistency, figure out how to link wordpress theme to the HTML iframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has not been necessarily tested yet, but if the device in question supports HTML forms and Javascript, then it should also support this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once it has been developed, people should test to see if it works on a phone or another computer</t>
+    <t>I need to tell people how my program works, the class diagram will be complete soon</t>
+  </si>
+  <si>
+    <t>Testing of the connection to the database has been achieved, and the frontend components have also been tested</t>
+  </si>
+  <si>
+    <t>The integration testing still should be done</t>
+  </si>
+  <si>
+    <t>It seems speedy to me, to load and update</t>
+  </si>
+  <si>
+    <t>Handled by the database</t>
+  </si>
+  <si>
+    <t>The code is stored on a git repository, and namecheap backs up the data</t>
+  </si>
+  <si>
+    <t>None that I am aware of</t>
+  </si>
+  <si>
+    <t>A more comprehensive test needs to be developed</t>
+  </si>
+  <si>
+    <t>There needs to be more CSS, as the game is practically bare HTML</t>
+  </si>
+  <si>
+    <t>Design consistency, figure out how to link wordpress theme to the HTML iframe</t>
+  </si>
+  <si>
+    <t>Has not been necessarily tested yet, but if the device in question supports HTML forms and Javascript, then it should also support this</t>
+  </si>
+  <si>
+    <t>Once it has been developed, people should test to see if it works on a phone or another computer</t>
+  </si>
+  <si>
+    <t>Added simple documentation (must expand later)https://github.com/Hanandrof/Group-3-Repository/blob/main/Documentation/CoverPages_Documentation.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group agreement default Namecheap error pages servicable if site were to go down  </t>
+  </si>
+  <si>
+    <t>Implement built-in paidMembershipsPro feature for join new prompt to only be viewable to visitors</t>
+  </si>
+  <si>
+    <t>Template Patterns and Collections compatability with other plugins</t>
+  </si>
+  <si>
+    <t>Primary format provided by Template Patterns and Collections plugin</t>
+  </si>
+  <si>
+    <t>Ensure plugins being used are current</t>
+  </si>
+  <si>
+    <t>Ensure plugins compatability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="36"/>
@@ -480,190 +480,468 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.57"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -680,14 +958,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -697,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -710,7 +988,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -723,7 +1001,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -738,20 +1016,20 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -766,7 +1044,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -779,63 +1057,63 @@
       <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="13">
         <v>44313</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -848,72 +1126,64 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -930,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -960,11 +1230,11 @@
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -977,11 +1247,11 @@
       <c r="D6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -994,11 +1264,11 @@
       <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1315,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1109,11 +1379,11 @@
       <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1126,11 +1396,11 @@
       <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1147,50 +1417,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1217,10 +1479,14 @@
       <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1230,10 +1496,10 @@
       <c r="C5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1243,36 +1509,48 @@
       <c r="C6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="14">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="14">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1280,146 +1558,164 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="14">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="14">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.42"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1453,12 +1749,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -1470,25 +1766,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>9</v>
@@ -1500,12 +1796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1517,46 +1813,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="14">
         <v>44312</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -1568,7 +1864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1585,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1602,38 +1898,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -1645,49 +1941,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.42"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1704,38 +1992,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -1743,25 +2031,25 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1769,38 +2057,38 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -1808,12 +2096,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
@@ -1821,12 +2109,12 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>9</v>
@@ -1834,56 +2122,51 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>